--- a/Test plan.xlsx
+++ b/Test plan.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
     <author>Gerald Rubin</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,6 +77,246 @@
           </rPr>
           <t xml:space="preserve">
 Means type is used in App.initialize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should: add category; add schemas: new_; getters and setters for X,Y,Width,Height</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should rename App_initialize in App category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should rename Type category and all schemas under it</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should delete Type category and all schemas under it</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add getter and setter for Type to App Type category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add hidden property to App Type for this Tool's Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should delete getter and setter for Type from App Type category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should delete Type's property from App Type only if no other Tis of this TI's Type exist</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should rename App Type's getter and setter for this Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gerald Rubin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add Typename_methodname using to Type's category's schema</t>
         </r>
       </text>
     </comment>
@@ -82,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Type</t>
   </si>
@@ -148,6 +391,12 @@
   </si>
   <si>
     <t>Sets schema correctly</t>
+  </si>
+  <si>
+    <t>Sets method(s) correctly</t>
+  </si>
+  <si>
+    <t>App type property</t>
   </si>
 </sst>
 </file>
@@ -211,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,12 +476,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -518,10 +801,12 @@
     <col min="1" max="1" width="17.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" style="1" customWidth="1"/>
-    <col min="4" max="11" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="1" customWidth="1"/>
+    <col min="6" max="12" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -534,59 +819,63 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="1">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -610,29 +899,31 @@
       <c r="K4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -640,12 +931,12 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -653,98 +944,123 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Test plan.xlsx
+++ b/Test plan.xlsx
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Type</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>App type property</t>
+  </si>
+  <si>
+    <t>2@QZ8$IE$CaS</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,10 +480,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,7 +799,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -828,22 +834,22 @@
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E3" s="1">
@@ -952,13 +958,13 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -995,62 +1001,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I24" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>9</v>
       </c>
